--- a/Data/EC/NIT-9012033908.xlsx
+++ b/Data/EC/NIT-9012033908.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{095FF2BE-5C44-4262-8820-76C8C7B2B116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B42A413D-073B-4701-AAA2-2400987F383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1CDC236E-DD4D-473F-B4D2-C36F25F23D5B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A17B839-A673-4842-BCCF-4BF3B0CD811E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,34 +80,34 @@
     <t>CARLOS HERNANDO OVALLE SANCHEZ</t>
   </si>
   <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
     <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -151,7 +151,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B2B9403-828B-A3F1-0B16-DAC82F449D87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011AF284-9FD0-AE1F-12C3-10A67C14AC48}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,28 +872,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFEC8B82-1A7F-4474-927F-3077C960C78E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D466D1-5E4A-4093-9CF8-EDA469351936}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
@@ -906,7 +906,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -917,7 +917,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -928,7 +928,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -939,8 +939,8 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
@@ -955,8 +955,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -971,8 +971,8 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
@@ -987,8 +987,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
         <v>27</v>
       </c>
@@ -1007,7 +1007,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1059,7 +1059,7 @@
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1073,16 +1073,16 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>330703</v>
+        <v>297633</v>
       </c>
       <c r="G17" s="18">
-        <v>11810838</v>
+        <v>8267587</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1099,13 +1099,13 @@
         <v>330703</v>
       </c>
       <c r="G18" s="18">
-        <v>11810838</v>
+        <v>8267587</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1122,13 +1122,13 @@
         <v>330703</v>
       </c>
       <c r="G19" s="18">
-        <v>11810838</v>
+        <v>8267587</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1145,13 +1145,13 @@
         <v>330703</v>
       </c>
       <c r="G20" s="18">
-        <v>11810838</v>
+        <v>8267587</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1168,13 +1168,13 @@
         <v>330703</v>
       </c>
       <c r="G21" s="18">
-        <v>11810838</v>
+        <v>8267587</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1191,13 +1191,13 @@
         <v>330703</v>
       </c>
       <c r="G22" s="18">
-        <v>11810838</v>
+        <v>8267587</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1214,13 +1214,13 @@
         <v>330703</v>
       </c>
       <c r="G23" s="18">
-        <v>11810838</v>
+        <v>8267587</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1237,13 +1237,13 @@
         <v>330703</v>
       </c>
       <c r="G24" s="18">
-        <v>11810838</v>
+        <v>8267587</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1260,13 +1260,13 @@
         <v>330703</v>
       </c>
       <c r="G25" s="18">
-        <v>11810838</v>
+        <v>8267587</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="21" t="s">
         <v>8</v>
       </c>
@@ -1280,16 +1280,16 @@
         <v>23</v>
       </c>
       <c r="F26" s="24">
-        <v>297633</v>
+        <v>330703</v>
       </c>
       <c r="G26" s="24">
-        <v>11810838</v>
+        <v>8267587</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
       <c r="J26" s="26"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="32" t="s">
         <v>33</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="32" t="s">
         <v>32</v>
       </c>

--- a/Data/EC/NIT-9012033908.xlsx
+++ b/Data/EC/NIT-9012033908.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B42A413D-073B-4701-AAA2-2400987F383B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62A517D5-AFC0-415E-AB89-2EE21E11BA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4A17B839-A673-4842-BCCF-4BF3B0CD811E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{890B0648-8B61-45AB-B3F3-090B552766FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -80,34 +80,34 @@
     <t>CARLOS HERNANDO OVALLE SANCHEZ</t>
   </si>
   <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
     <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -206,7 +206,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -219,9 +221,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -421,23 +421,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -465,10 +465,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,7 +521,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{011AF284-9FD0-AE1F-12C3-10A67C14AC48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{589D5669-A1E9-E35C-C43B-BCAC3914A5ED}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,7 +872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77D466D1-5E4A-4093-9CF8-EDA469351936}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84CC0046-F82B-4459-A87E-3D4C6B8BD733}">
   <dimension ref="B2:J32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1053,7 +1053,7 @@
         <v>1170</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>908526</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1073,10 +1073,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>297633</v>
+        <v>330703</v>
       </c>
       <c r="G17" s="18">
-        <v>8267587</v>
+        <v>11810838</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1099,7 +1099,7 @@
         <v>330703</v>
       </c>
       <c r="G18" s="18">
-        <v>8267587</v>
+        <v>11810838</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1122,7 +1122,7 @@
         <v>330703</v>
       </c>
       <c r="G19" s="18">
-        <v>8267587</v>
+        <v>11810838</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1145,7 +1145,7 @@
         <v>330703</v>
       </c>
       <c r="G20" s="18">
-        <v>8267587</v>
+        <v>11810838</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1168,7 +1168,7 @@
         <v>330703</v>
       </c>
       <c r="G21" s="18">
-        <v>8267587</v>
+        <v>11810838</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1191,7 +1191,7 @@
         <v>330703</v>
       </c>
       <c r="G22" s="18">
-        <v>8267587</v>
+        <v>11810838</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1214,7 +1214,7 @@
         <v>330703</v>
       </c>
       <c r="G23" s="18">
-        <v>8267587</v>
+        <v>11810838</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1237,7 +1237,7 @@
         <v>330703</v>
       </c>
       <c r="G24" s="18">
-        <v>8267587</v>
+        <v>11810838</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1260,7 +1260,7 @@
         <v>330703</v>
       </c>
       <c r="G25" s="18">
-        <v>8267587</v>
+        <v>11810838</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1280,10 +1280,10 @@
         <v>23</v>
       </c>
       <c r="F26" s="24">
-        <v>330703</v>
+        <v>297633</v>
       </c>
       <c r="G26" s="24">
-        <v>8267587</v>
+        <v>11810838</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
